--- a/MainTop/24.06.2025 имена/Ozon_поставка 24.06.2025 имена.xlsx
+++ b/MainTop/24.06.2025 имена/Ozon_поставка 24.06.2025 имена.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\24.06.2025 имена\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8EA9F2-2805-49E6-AC78-89A9CF44CD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC37C60-7FBC-4A93-9438-0BA92F937CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -728,13 +728,14 @@
   </sheetPr>
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
       <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
